--- a/leetcode_codes/union_meta_tiktok_2.xlsx
+++ b/leetcode_codes/union_meta_tiktok_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayixian/projects/coding/leetcode_codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB39924-1467-2C4A-9941-54D8C9B5D472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AEF71F-8C68-694D-B372-B0DF2FA51820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37400" yWindow="7700" windowWidth="37360" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="4080" windowWidth="37360" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,6 +506,7 @@
     <author>tc={C451E4B4-3643-A146-9FA5-49EFC3FF95BC}</author>
     <author>tc={60890E8C-9B72-1D4F-855F-87D1C1DFD427}</author>
     <author>tc={CE94B30C-4356-C24B-8082-E3E0A856AD09}</author>
+    <author>tc={894A2262-D436-E84E-82E5-09B8C7AEF749}</author>
   </authors>
   <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{54DFD068-0262-DE41-AC31-BFA79E46AA92}">
@@ -699,25 +700,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>word</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t> </t>
+          <t> word </t>
         </r>
         <r>
           <rPr>
@@ -735,43 +718,16 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>abbr</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>判断这个缩写是否可以是给定单词的缩写。</t>
+          <t> abbr </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>，判断这个缩写是否可以是给定单词的缩写。</t>
         </r>
         <r>
           <rPr>
@@ -1359,16 +1315,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>n </t>
+          <t> n </t>
         </r>
         <r>
           <rPr>
@@ -1405,34 +1352,16 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>target </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>，</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>方法是从收集的贴纸中切割单个字母并重新排列它们。如果你愿意，你可以多次使用每个贴纸，每个贴纸的数量是无限的。</t>
+          <t> target </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>，方法是从收集的贴纸中切割单个字母并重新排列它们。如果你愿意，你可以多次使用每个贴纸，每个贴纸的数量是无限的。</t>
         </r>
         <r>
           <rPr>
@@ -1460,16 +1389,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>target </t>
+          <t> target </t>
         </r>
         <r>
           <rPr>
@@ -1487,16 +1407,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>-1 </t>
+          <t> -1 </t>
         </r>
         <r>
           <rPr>
@@ -1544,16 +1455,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">stickers = ["with","example","science"], target = "thehat" </t>
+          <t xml:space="preserve"> stickers = ["with","example","science"], target = "thehat" </t>
         </r>
         <r>
           <rPr>
@@ -2102,34 +2004,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>if node.val &lt; right:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>#</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">if node.val &lt; right: # </t>
         </r>
         <r>
           <rPr>
@@ -2147,16 +2022,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>node</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">node
 </t>
         </r>
         <r>
@@ -14515,6 +14381,217 @@
 </t>
       </text>
     </comment>
+    <comment ref="B222" authorId="0" shapeId="0" xr:uid="{1F016E48-5BC1-7142-A770-C229C6DA7BF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jiayi Xian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>给你一个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>m</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>行</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>列的矩阵</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>matrix</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>请按照</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>顺时针螺旋顺序</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>，返回矩阵中的所有元素。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D222" authorId="4" shapeId="0" xr:uid="{894A2262-D436-E84E-82E5-09B8C7AEF749}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+        def spiralOrder1(self, matrix: List[List[int]]) -&gt; List[int]:
+        if not matrix or not matrix[0]:
+            return []
+        ans = []
+        m, n = len(matrix), len(matrix[0])
+        u, d, l, r = 0, m - 1, 0, n - 1
+        while l &lt; r and u &lt; d:
+            ans.extend([matrix[u][j] for j in xrange(l, r)])
+            ans.extend([matrix[i][r] for i in xrange(u, d)])
+            ans.extend([matrix[d][j] for j in xrange(r, l, -1)])
+            ans.extend([matrix[i][l] for i in xrange(d, u, -1)])
+            u, d, l, r = u + 1, d - 1, l + 1, r - 1
+        if l == r:
+            ans.extend([matrix[i][r] for i in xrange(u, d + 1)])
+        elif u == d:
+            ans.extend([matrix[u][j] for j in xrange(l, r + 1)])
+        return ans</t>
+      </text>
+    </comment>
     <comment ref="D242" authorId="0" shapeId="0" xr:uid="{5E231CE9-A8FD-6E4F-B2C8-7A227DEC398A}">
       <text>
         <r>
@@ -14669,7 +14746,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="636">
   <si>
     <t>Number</t>
   </si>
@@ -16574,6 +16651,9 @@
   </si>
   <si>
     <t>bits</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
   </si>
 </sst>
 </file>
@@ -17463,6 +17543,25 @@
         return record.values(
 </text>
   </threadedComment>
+  <threadedComment ref="D222" dT="2024-03-06T17:20:42.21" personId="{36DC4A45-6491-7A48-8BD4-D64D5BE6194E}" id="{894A2262-D436-E84E-82E5-09B8C7AEF749}">
+    <text xml:space="preserve">    def spiralOrder1(self, matrix: List[List[int]]) -&gt; List[int]:
+        if not matrix or not matrix[0]:
+            return []
+        ans = []
+        m, n = len(matrix), len(matrix[0])
+        u, d, l, r = 0, m - 1, 0, n - 1
+        while l &lt; r and u &lt; d:
+            ans.extend([matrix[u][j] for j in xrange(l, r)])
+            ans.extend([matrix[i][r] for i in xrange(u, d)])
+            ans.extend([matrix[d][j] for j in xrange(r, l, -1)])
+            ans.extend([matrix[i][l] for i in xrange(d, u, -1)])
+            u, d, l, r = u + 1, d - 1, l + 1, r - 1
+        if l == r:
+            ans.extend([matrix[i][r] for i in xrange(u, d + 1)])
+        elif u == d:
+            ans.extend([matrix[u][j] for j in xrange(l, r + 1)])
+        return ans</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -23582,10 +23681,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D77D21-7B59-9747-842A-E1E33F35F39A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V242"/>
+  <dimension ref="A1:V243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="134" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -30840,7 +30939,7 @@
       <c r="A197" s="2">
         <v>57</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C197" s="2"/>
@@ -31680,7 +31779,7 @@
       <c r="A223" s="2">
         <v>152</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C223" s="2"/>
@@ -32297,6 +32396,14 @@
       </c>
       <c r="C242" s="66" t="s">
         <v>634</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" s="5">
+        <v>787</v>
+      </c>
+      <c r="B243" s="66" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
